--- a/sources/Serbian_data.xlsx
+++ b/sources/Serbian_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Serbian" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Serbian!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Serbian!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="720">
   <si>
     <t>language_no</t>
   </si>
@@ -2176,6 +2176,12 @@
   </si>
   <si>
     <t>NOMzbogGEN</t>
+  </si>
+  <si>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
   </si>
 </sst>
 </file>
@@ -2561,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L124"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2588,10 +2594,12 @@
     <col min="17" max="17" width="18.81640625" style="9" customWidth="1"/>
     <col min="18" max="18" width="28.6328125" style="9" customWidth="1"/>
     <col min="19" max="19" width="113.81640625" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="9"/>
+    <col min="20" max="20" width="28.6328125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2649,8 +2657,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>36</v>
       </c>
@@ -2693,9 +2707,11 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S2" s="10"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>36</v>
       </c>
@@ -2726,17 +2742,19 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
-        <v>541</v>
-      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S3" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>36</v>
       </c>
@@ -2773,17 +2791,19 @@
       <c r="L4" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S4" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>36</v>
       </c>
@@ -2824,9 +2844,11 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S5" s="10"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>36</v>
       </c>
@@ -2857,17 +2879,19 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10" t="s">
-        <v>548</v>
-      </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S6" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>36</v>
       </c>
@@ -2910,9 +2934,11 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S7" s="10"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>36</v>
       </c>
@@ -2955,9 +2981,11 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S8" s="10"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>36</v>
       </c>
@@ -2998,9 +3026,11 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S9" s="10"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>36</v>
       </c>
@@ -3041,9 +3071,11 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S10" s="10"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>36</v>
       </c>
@@ -3086,9 +3118,11 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S11" s="10"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>36</v>
       </c>
@@ -3129,9 +3163,11 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S12" s="10"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>36</v>
       </c>
@@ -3174,9 +3210,11 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S13" s="10"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>36</v>
       </c>
@@ -3217,9 +3255,11 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S14" s="10"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>36</v>
       </c>
@@ -3262,9 +3302,11 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S15" s="10"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>36</v>
       </c>
@@ -3305,9 +3347,11 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S16" s="10"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>36</v>
       </c>
@@ -3348,9 +3392,11 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S17" s="10"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>36</v>
       </c>
@@ -3393,9 +3439,11 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S18" s="10"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>36</v>
       </c>
@@ -3436,9 +3484,11 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S19" s="10"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>36</v>
       </c>
@@ -3473,17 +3523,19 @@
       <c r="L20" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>567</v>
-      </c>
+      <c r="M20" s="10"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S20" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>36</v>
       </c>
@@ -3524,9 +3576,11 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S21" s="10"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>36</v>
       </c>
@@ -3563,17 +3617,19 @@
       <c r="L22" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>570</v>
-      </c>
+      <c r="M22" s="10"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S22" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>36</v>
       </c>
@@ -3614,9 +3670,11 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S23" s="10"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>36</v>
       </c>
@@ -3653,17 +3711,19 @@
       <c r="L24" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>574</v>
-      </c>
+      <c r="M24" s="10"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S24" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>36</v>
       </c>
@@ -3700,17 +3760,19 @@
       <c r="L25" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>574</v>
-      </c>
+      <c r="M25" s="10"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S25" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>36</v>
       </c>
@@ -3747,17 +3809,19 @@
       <c r="L26" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="M26" s="10" t="s">
-        <v>577</v>
-      </c>
+      <c r="M26" s="10"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S26" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>36</v>
       </c>
@@ -3798,9 +3862,11 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S27" s="10"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -3841,9 +3907,11 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S28" s="10"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>36</v>
       </c>
@@ -3884,9 +3952,11 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S29" s="10"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>36</v>
       </c>
@@ -3929,9 +3999,11 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S30" s="10"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>36</v>
       </c>
@@ -3974,9 +4046,11 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S31" s="10"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>36</v>
       </c>
@@ -4017,9 +4091,11 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S32" s="10"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>36</v>
       </c>
@@ -4060,9 +4136,11 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S33" s="10"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>36</v>
       </c>
@@ -4103,9 +4181,11 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S34" s="10"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>36</v>
       </c>
@@ -4146,9 +4226,11 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S35" s="4"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -4189,9 +4271,11 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S36" s="10"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4232,9 +4316,11 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S37" s="10"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4275,9 +4361,11 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S38" s="10"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4318,9 +4406,11 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S39" s="10"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -4361,9 +4451,11 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S40" s="10"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -4404,9 +4496,11 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S41" s="10"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>36</v>
       </c>
@@ -4447,9 +4541,11 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S42" s="10"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -4480,17 +4576,19 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="10" t="s">
-        <v>594</v>
-      </c>
+      <c r="M43" s="10"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S43" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>36</v>
       </c>
@@ -4531,9 +4629,11 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S44" s="10"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>36</v>
       </c>
@@ -4574,9 +4674,11 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S45" s="10"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>36</v>
       </c>
@@ -4619,9 +4721,11 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S46" s="10"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>36</v>
       </c>
@@ -4662,9 +4766,11 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S47" s="10"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>36</v>
       </c>
@@ -4707,9 +4813,11 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S48" s="10"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>36</v>
       </c>
@@ -4752,9 +4860,11 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S49" s="4"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>36</v>
       </c>
@@ -4795,9 +4905,11 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S50" s="10"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>36</v>
       </c>
@@ -4838,9 +4950,11 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S51" s="10"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>36</v>
       </c>
@@ -4877,17 +4991,19 @@
       <c r="L52" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="M52" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="M52" s="10"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S52" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>36</v>
       </c>
@@ -4928,9 +5044,11 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S53" s="10"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>36</v>
       </c>
@@ -4971,9 +5089,11 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S54" s="10"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>36</v>
       </c>
@@ -5016,9 +5136,11 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S55" s="10"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>36</v>
       </c>
@@ -5059,9 +5181,11 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S56" s="10"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>36</v>
       </c>
@@ -5104,9 +5228,11 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S57" s="10"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>36</v>
       </c>
@@ -5147,9 +5273,11 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S58" s="10"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>36</v>
       </c>
@@ -5192,9 +5320,11 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S59" s="10"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>36</v>
       </c>
@@ -5231,17 +5361,19 @@
       <c r="L60" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="M60" s="10" t="s">
-        <v>614</v>
-      </c>
+      <c r="M60" s="10"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S60" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="T60" s="7"/>
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>36</v>
       </c>
@@ -5278,17 +5410,19 @@
       <c r="L61" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="M61" s="10" t="s">
-        <v>616</v>
-      </c>
+      <c r="M61" s="10"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S61" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="T61" s="7"/>
+      <c r="U61" s="5"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>36</v>
       </c>
@@ -5331,9 +5465,11 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S62" s="11"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>36</v>
       </c>
@@ -5376,9 +5512,11 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S63" s="10"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>36</v>
       </c>
@@ -5419,9 +5557,11 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S64" s="10"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>36</v>
       </c>
@@ -5458,17 +5598,19 @@
       <c r="L65" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="M65" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="M65" s="10"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S65" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>36</v>
       </c>
@@ -5511,9 +5653,11 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S66" s="10"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>36</v>
       </c>
@@ -5554,9 +5698,11 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S67" s="10"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>36</v>
       </c>
@@ -5599,9 +5745,11 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S68" s="4"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>36</v>
       </c>
@@ -5642,9 +5790,11 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S69" s="10"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>36</v>
       </c>
@@ -5685,9 +5835,11 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S70" s="10"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>36</v>
       </c>
@@ -5728,9 +5880,11 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S71" s="10"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>36</v>
       </c>
@@ -5771,9 +5925,11 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="5"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S72" s="10"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>36</v>
       </c>
@@ -5814,9 +5970,11 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S73" s="10"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>36</v>
       </c>
@@ -5859,9 +6017,11 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S74" s="10"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="5"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>36</v>
       </c>
@@ -5902,9 +6062,11 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S75" s="10"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="5"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>36</v>
       </c>
@@ -5945,9 +6107,11 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S76" s="10"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="5"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>36</v>
       </c>
@@ -5984,17 +6148,19 @@
       <c r="L77" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="M77" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="M77" s="10"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S77" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>36</v>
       </c>
@@ -6037,9 +6203,11 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S78" s="10"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="5"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>36</v>
       </c>
@@ -6080,9 +6248,11 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S79" s="10"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="5"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>36</v>
       </c>
@@ -6125,9 +6295,11 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S80" s="10"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="5"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>36</v>
       </c>
@@ -6164,17 +6336,19 @@
       <c r="L81" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="M81" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="M81" s="10"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S81" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="T81" s="7"/>
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>36</v>
       </c>
@@ -6211,17 +6385,19 @@
       <c r="L82" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="M82" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="M82" s="10"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S82" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="T82" s="7"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>36</v>
       </c>
@@ -6258,17 +6434,19 @@
       <c r="L83" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="M83" s="10" t="s">
-        <v>642</v>
-      </c>
+      <c r="M83" s="10"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S83" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="T83" s="7"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>36</v>
       </c>
@@ -6305,17 +6483,19 @@
       <c r="L84" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>544</v>
-      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S84" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="T84" s="7"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>36</v>
       </c>
@@ -6352,17 +6532,19 @@
       <c r="L85" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="M85" s="10" t="s">
-        <v>645</v>
-      </c>
+      <c r="M85" s="10"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S85" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="T85" s="7"/>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>36</v>
       </c>
@@ -6403,9 +6585,11 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S86" s="10"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="5"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>36</v>
       </c>
@@ -6448,9 +6632,11 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S87" s="10"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>36</v>
       </c>
@@ -6493,9 +6679,11 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S88" s="10"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="5"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>36</v>
       </c>
@@ -6538,9 +6726,11 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S89" s="4"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="5"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>36</v>
       </c>
@@ -6581,9 +6771,11 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S90" s="4"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="5"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>36</v>
       </c>
@@ -6626,9 +6818,11 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S91" s="10"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="5"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>36</v>
       </c>
@@ -6669,9 +6863,11 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S92" s="10"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="5"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>36</v>
       </c>
@@ -6702,17 +6898,19 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="10"/>
-      <c r="M93" s="4" t="s">
-        <v>654</v>
-      </c>
+      <c r="M93" s="4"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S93" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="5"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>36</v>
       </c>
@@ -6753,9 +6951,11 @@
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S94" s="10"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>36</v>
       </c>
@@ -6792,17 +6992,19 @@
       <c r="L95" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="M95" s="10" t="s">
-        <v>645</v>
-      </c>
+      <c r="M95" s="10"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S95" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="5"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>36</v>
       </c>
@@ -6845,9 +7047,11 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S96" s="10"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>36</v>
       </c>
@@ -6888,9 +7092,11 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S97" s="10"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="5"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>36</v>
       </c>
@@ -6931,9 +7137,11 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S98" s="10"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>36</v>
       </c>
@@ -6970,17 +7178,19 @@
       <c r="L99" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="M99" s="10" t="s">
-        <v>661</v>
-      </c>
+      <c r="M99" s="10"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S99" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="5"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>36</v>
       </c>
@@ -7017,17 +7227,19 @@
       <c r="L100" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="M100" s="10" t="s">
-        <v>661</v>
-      </c>
+      <c r="M100" s="10"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S100" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="T100" s="7"/>
+      <c r="U100" s="5"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>36</v>
       </c>
@@ -7068,9 +7280,11 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S101" s="10"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>36</v>
       </c>
@@ -7113,9 +7327,11 @@
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S102" s="10"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="5"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>36</v>
       </c>
@@ -7156,9 +7372,11 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S103" s="10"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>36</v>
       </c>
@@ -7193,17 +7411,19 @@
       <c r="L104" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="M104" s="10" t="s">
-        <v>666</v>
-      </c>
+      <c r="M104" s="10"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S104" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="T104" s="7"/>
+      <c r="U104" s="5"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>36</v>
       </c>
@@ -7246,9 +7466,11 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S105" s="10"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="5"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>36</v>
       </c>
@@ -7289,9 +7511,11 @@
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S106" s="10"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="5"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>36</v>
       </c>
@@ -7332,9 +7556,11 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S107" s="10"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="5"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>36</v>
       </c>
@@ -7375,9 +7601,11 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S108" s="10"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>36</v>
       </c>
@@ -7418,9 +7646,11 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="5"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S109" s="10"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="5"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>36</v>
       </c>
@@ -7463,9 +7693,11 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S110" s="10"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>36</v>
       </c>
@@ -7506,9 +7738,11 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S111" s="10"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>36</v>
       </c>
@@ -7539,17 +7773,19 @@
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
-      <c r="M112" s="10" t="s">
-        <v>675</v>
-      </c>
+      <c r="M112" s="10"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S112" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>36</v>
       </c>
@@ -7586,17 +7822,19 @@
       <c r="L113" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="M113" s="4" t="s">
-        <v>614</v>
-      </c>
+      <c r="M113" s="4"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S113" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>36</v>
       </c>
@@ -7639,9 +7877,11 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S114" s="10"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>36</v>
       </c>
@@ -7684,9 +7924,11 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S115" s="10"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>36</v>
       </c>
@@ -7723,17 +7965,19 @@
       <c r="L116" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="M116" s="10" t="s">
-        <v>614</v>
-      </c>
+      <c r="M116" s="10"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S116" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>36</v>
       </c>
@@ -7776,9 +8020,11 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S117" s="4"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>36</v>
       </c>
@@ -7821,9 +8067,11 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S118" s="10"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>36</v>
       </c>
@@ -7860,17 +8108,19 @@
       <c r="L119" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="M119" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="M119" s="10"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S119" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="5"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>36</v>
       </c>
@@ -7901,17 +8151,19 @@
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
-      <c r="M120" s="10" t="s">
-        <v>684</v>
-      </c>
+      <c r="M120" s="10"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S120" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="T120" s="7"/>
+      <c r="U120" s="5"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>36</v>
       </c>
@@ -7954,9 +8206,11 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S121" s="10"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>36</v>
       </c>
@@ -7997,9 +8251,11 @@
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S122" s="10"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>36</v>
       </c>
@@ -8042,9 +8298,11 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S123" s="10"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="5"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>36</v>
       </c>
@@ -8075,17 +8333,19 @@
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
-      <c r="M124" s="10" t="s">
-        <v>689</v>
-      </c>
+      <c r="M124" s="10"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S124" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="T124" s="7"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>36</v>
       </c>
@@ -8126,9 +8386,11 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S125" s="10"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>36</v>
       </c>
@@ -8171,9 +8433,11 @@
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S126" s="10"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>36</v>
       </c>
@@ -8214,9 +8478,11 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S127" s="10"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>36</v>
       </c>
@@ -8259,9 +8525,11 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S128" s="10"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>36</v>
       </c>
@@ -8304,9 +8572,11 @@
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S129" s="10"/>
+      <c r="T129" s="7"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>36</v>
       </c>
@@ -8349,9 +8619,11 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S130" s="10"/>
+      <c r="T130" s="7"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>36</v>
       </c>
@@ -8388,18 +8660,20 @@
       <c r="L131" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="M131" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="M131" s="10"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/Serbian_data.xlsx
+++ b/sources/Serbian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="720">
   <si>
     <t>language_no</t>
   </si>
@@ -2118,70 +2118,70 @@
     <t>се стиди</t>
   </si>
   <si>
-    <t>ACCNOM</t>
-  </si>
-  <si>
-    <t>NOMGEN</t>
-  </si>
-  <si>
-    <t>NOMnaACC</t>
-  </si>
-  <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
-    <t>NOMuACC</t>
-  </si>
-  <si>
-    <t>NOMizGEN</t>
-  </si>
-  <si>
-    <t>NOMdoGEN</t>
-  </si>
-  <si>
-    <t>NOMsINS</t>
-  </si>
-  <si>
-    <t>NOModGEN</t>
-  </si>
-  <si>
-    <t>NOMINS</t>
-  </si>
-  <si>
-    <t>NOMoLOC</t>
-  </si>
-  <si>
-    <t>NOMNOM</t>
-  </si>
-  <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
-    <t>INSNOM</t>
-  </si>
-  <si>
-    <t>NOMzaINS</t>
-  </si>
-  <si>
-    <t>NOMzaACC</t>
-  </si>
-  <si>
-    <t>NOMsGEN</t>
-  </si>
-  <si>
-    <t>DATGEN</t>
-  </si>
-  <si>
-    <t>NOMuLOC</t>
-  </si>
-  <si>
-    <t>NOMzbogGEN</t>
-  </si>
-  <si>
     <t>verb_original_orthography</t>
   </si>
   <si>
     <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t>ACC_NOM</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>DAT_GEN</t>
+  </si>
+  <si>
+    <t>INS_NOM</t>
+  </si>
+  <si>
+    <t>NOM_GEN</t>
+  </si>
+  <si>
+    <t>NOM_naACC</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_uACC</t>
+  </si>
+  <si>
+    <t>NOM_izGEN</t>
+  </si>
+  <si>
+    <t>NOM_doGEN</t>
+  </si>
+  <si>
+    <t>NOM_sINS</t>
+  </si>
+  <si>
+    <t>NOM_odGEN</t>
+  </si>
+  <si>
+    <t>NOM_INS</t>
+  </si>
+  <si>
+    <t>NOM_oLOC</t>
+  </si>
+  <si>
+    <t>NOM_zaINS</t>
+  </si>
+  <si>
+    <t>NOM_zaACC</t>
+  </si>
+  <si>
+    <t>NOM_sGEN</t>
+  </si>
+  <si>
+    <t>NOM_uLOC</t>
+  </si>
+  <si>
+    <t>NOM_zbogGEN</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
   </si>
 </sst>
 </file>
@@ -2569,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M131"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2658,10 +2658,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -2699,7 +2699,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="5"/>
@@ -2739,8 +2739,12 @@
       <c r="I3" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>540</v>
+      </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="5"/>
@@ -2789,7 +2793,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="5"/>
@@ -2829,9 +2833,11 @@
         <v>545</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J5" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K5" s="10" t="s">
         <v>546</v>
       </c>
@@ -2876,8 +2882,12 @@
       <c r="I6" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>540</v>
+      </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="5"/>
@@ -2926,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="5"/>
@@ -2973,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
@@ -3011,9 +3021,11 @@
         <v>553</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J9" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K9" s="10" t="s">
         <v>546</v>
       </c>
@@ -3056,9 +3068,11 @@
         <v>554</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J10" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K10" s="10" t="s">
         <v>546</v>
       </c>
@@ -3110,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="5"/>
@@ -3148,9 +3162,11 @@
         <v>556</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J12" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K12" s="10" t="s">
         <v>546</v>
       </c>
@@ -3202,7 +3218,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
@@ -3240,9 +3256,11 @@
         <v>559</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J14" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K14" s="10" t="s">
         <v>546</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5"/>
@@ -3332,9 +3350,11 @@
         <v>562</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J16" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K16" s="10" t="s">
         <v>546</v>
       </c>
@@ -3377,9 +3397,11 @@
         <v>563</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J17" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K17" s="10" t="s">
         <v>546</v>
       </c>
@@ -3431,7 +3453,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="5"/>
@@ -3469,9 +3491,11 @@
         <v>565</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J19" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K19" s="10" t="s">
         <v>546</v>
       </c>
@@ -3514,9 +3538,11 @@
         <v>566</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J20" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K20" s="10" t="s">
         <v>546</v>
       </c>
@@ -3561,9 +3587,11 @@
         <v>568</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J21" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K21" s="10" t="s">
         <v>546</v>
       </c>
@@ -3615,7 +3643,7 @@
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="5"/>
@@ -3655,9 +3683,11 @@
         <v>571</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J23" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K23" s="10" t="s">
         <v>546</v>
       </c>
@@ -3709,7 +3739,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="5"/>
@@ -3758,7 +3788,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="5"/>
@@ -3807,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="5"/>
@@ -3847,9 +3877,11 @@
         <v>578</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J27" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K27" s="10" t="s">
         <v>546</v>
       </c>
@@ -3892,9 +3924,11 @@
         <v>579</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J28" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K28" s="10" t="s">
         <v>546</v>
       </c>
@@ -3937,9 +3971,11 @@
         <v>580</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J29" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K29" s="10" t="s">
         <v>546</v>
       </c>
@@ -3991,7 +4027,7 @@
         <v>9</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M30" s="10"/>
       <c r="N30" s="5"/>
@@ -4038,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="5"/>
@@ -4076,9 +4112,11 @@
         <v>584</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J32" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K32" s="10" t="s">
         <v>546</v>
       </c>
@@ -4121,9 +4159,11 @@
         <v>585</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J33" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K33" s="10" t="s">
         <v>546</v>
       </c>
@@ -4166,9 +4206,11 @@
         <v>586</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J34" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K34" s="10" t="s">
         <v>546</v>
       </c>
@@ -4211,9 +4253,11 @@
         <v>587</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K35" s="10" t="s">
         <v>546</v>
       </c>
@@ -4256,9 +4300,11 @@
         <v>588</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J36" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K36" s="10" t="s">
         <v>546</v>
       </c>
@@ -4301,9 +4347,11 @@
         <v>589</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J37" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K37" s="10" t="s">
         <v>546</v>
       </c>
@@ -4346,9 +4394,11 @@
         <v>590</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J38" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K38" s="10" t="s">
         <v>546</v>
       </c>
@@ -4391,9 +4441,11 @@
         <v>539</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J39" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K39" s="10" t="s">
         <v>546</v>
       </c>
@@ -4436,9 +4488,11 @@
         <v>591</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J40" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K40" s="10" t="s">
         <v>546</v>
       </c>
@@ -4481,9 +4535,11 @@
         <v>592</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J41" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K41" s="10" t="s">
         <v>546</v>
       </c>
@@ -4526,9 +4582,11 @@
         <v>593</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J42" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K42" s="10" t="s">
         <v>546</v>
       </c>
@@ -4573,8 +4631,12 @@
       <c r="I43" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="J43" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>540</v>
+      </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="5"/>
@@ -4614,9 +4676,11 @@
         <v>595</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J44" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K44" s="10" t="s">
         <v>546</v>
       </c>
@@ -4659,9 +4723,11 @@
         <v>596</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J45" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K45" s="10" t="s">
         <v>546</v>
       </c>
@@ -4713,7 +4779,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="5"/>
@@ -4751,9 +4817,11 @@
         <v>598</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J47" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K47" s="10" t="s">
         <v>546</v>
       </c>
@@ -4805,7 +4873,7 @@
         <v>9</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="5"/>
@@ -4852,7 +4920,7 @@
         <v>9</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="5"/>
@@ -4890,9 +4958,11 @@
         <v>603</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J50" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K50" s="10" t="s">
         <v>546</v>
       </c>
@@ -4935,9 +5005,11 @@
         <v>604</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J51" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K51" s="10" t="s">
         <v>546</v>
       </c>
@@ -4989,7 +5061,7 @@
         <v>9</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="M52" s="10"/>
       <c r="N52" s="5"/>
@@ -5029,9 +5101,11 @@
         <v>606</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J53" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K53" s="10" t="s">
         <v>546</v>
       </c>
@@ -5074,9 +5148,11 @@
         <v>607</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J54" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K54" s="10" t="s">
         <v>546</v>
       </c>
@@ -5128,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M55" s="10"/>
       <c r="N55" s="5"/>
@@ -5166,9 +5242,11 @@
         <v>609</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J56" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K56" s="10" t="s">
         <v>546</v>
       </c>
@@ -5220,7 +5298,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="M57" s="10"/>
       <c r="N57" s="5"/>
@@ -5258,9 +5336,11 @@
         <v>611</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J58" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K58" s="10" t="s">
         <v>546</v>
       </c>
@@ -5312,7 +5392,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="M59" s="10"/>
       <c r="N59" s="5"/>
@@ -5359,7 +5439,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="M60" s="10"/>
       <c r="N60" s="5"/>
@@ -5408,7 +5488,7 @@
         <v>8</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="M61" s="10"/>
       <c r="N61" s="5"/>
@@ -5457,7 +5537,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="5"/>
@@ -5504,7 +5584,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M63" s="10"/>
       <c r="N63" s="5"/>
@@ -5542,9 +5622,11 @@
         <v>619</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J64" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K64" s="10" t="s">
         <v>546</v>
       </c>
@@ -5596,7 +5678,7 @@
         <v>9</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="M65" s="10"/>
       <c r="N65" s="5"/>
@@ -5645,7 +5727,7 @@
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M66" s="10"/>
       <c r="N66" s="5"/>
@@ -5683,9 +5765,11 @@
         <v>623</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J67" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K67" s="10" t="s">
         <v>546</v>
       </c>
@@ -5737,7 +5821,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="5"/>
@@ -5775,9 +5859,11 @@
         <v>625</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J69" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K69" s="10" t="s">
         <v>546</v>
       </c>
@@ -5820,9 +5906,11 @@
         <v>626</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J70" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K70" s="10" t="s">
         <v>546</v>
       </c>
@@ -5865,9 +5953,11 @@
         <v>627</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J71" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K71" s="10" t="s">
         <v>546</v>
       </c>
@@ -5910,9 +6000,11 @@
         <v>628</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J72" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K72" s="10" t="s">
         <v>546</v>
       </c>
@@ -5955,9 +6047,11 @@
         <v>629</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J73" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K73" s="10" t="s">
         <v>546</v>
       </c>
@@ -6009,7 +6103,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M74" s="10"/>
       <c r="N74" s="5"/>
@@ -6047,9 +6141,11 @@
         <v>631</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J75" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K75" s="10" t="s">
         <v>546</v>
       </c>
@@ -6092,9 +6188,11 @@
         <v>632</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J76" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K76" s="10" t="s">
         <v>546</v>
       </c>
@@ -6146,7 +6244,7 @@
         <v>9</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="M77" s="10"/>
       <c r="N77" s="5"/>
@@ -6195,7 +6293,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M78" s="10"/>
       <c r="N78" s="5"/>
@@ -6233,9 +6331,11 @@
         <v>636</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J79" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K79" s="10" t="s">
         <v>546</v>
       </c>
@@ -6287,7 +6387,7 @@
         <v>9</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M80" s="10"/>
       <c r="N80" s="5"/>
@@ -6334,7 +6434,7 @@
         <v>9</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M81" s="10"/>
       <c r="N81" s="5"/>
@@ -6383,7 +6483,7 @@
         <v>9</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M82" s="10"/>
       <c r="N82" s="5"/>
@@ -6432,7 +6532,7 @@
         <v>9</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="M83" s="10"/>
       <c r="N83" s="5"/>
@@ -6481,7 +6581,7 @@
         <v>9</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="5"/>
@@ -6530,7 +6630,7 @@
         <v>9</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M85" s="10"/>
       <c r="N85" s="5"/>
@@ -6570,9 +6670,11 @@
         <v>646</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J86" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K86" s="10" t="s">
         <v>546</v>
       </c>
@@ -6624,7 +6726,7 @@
         <v>8</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="M87" s="10"/>
       <c r="N87" s="5"/>
@@ -6671,7 +6773,7 @@
         <v>9</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M88" s="10"/>
       <c r="N88" s="5"/>
@@ -6718,7 +6820,7 @@
         <v>8</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="5"/>
@@ -6756,9 +6858,11 @@
         <v>650</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J90" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K90" s="10" t="s">
         <v>546</v>
       </c>
@@ -6810,7 +6914,7 @@
         <v>9</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M91" s="10"/>
       <c r="N91" s="5"/>
@@ -6848,9 +6952,11 @@
         <v>653</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J92" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K92" s="10" t="s">
         <v>546</v>
       </c>
@@ -6895,8 +7001,12 @@
       <c r="I93" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="J93" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>540</v>
+      </c>
       <c r="L93" s="10"/>
       <c r="M93" s="4"/>
       <c r="N93" s="5"/>
@@ -6936,9 +7046,11 @@
         <v>655</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J94" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K94" s="10" t="s">
         <v>546</v>
       </c>
@@ -6990,7 +7102,7 @@
         <v>9</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M95" s="10"/>
       <c r="N95" s="5"/>
@@ -7039,7 +7151,7 @@
         <v>9</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M96" s="10"/>
       <c r="N96" s="5"/>
@@ -7077,9 +7189,11 @@
         <v>658</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J97" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K97" s="10" t="s">
         <v>546</v>
       </c>
@@ -7122,9 +7236,11 @@
         <v>659</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J98" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K98" s="10" t="s">
         <v>546</v>
       </c>
@@ -7176,7 +7292,7 @@
         <v>9</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M99" s="10"/>
       <c r="N99" s="5"/>
@@ -7225,7 +7341,7 @@
         <v>9</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="5"/>
@@ -7265,9 +7381,11 @@
         <v>663</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J101" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K101" s="10" t="s">
         <v>546</v>
       </c>
@@ -7319,7 +7437,7 @@
         <v>9</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="5"/>
@@ -7357,9 +7475,11 @@
         <v>665</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J103" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K103" s="10" t="s">
         <v>546</v>
       </c>
@@ -7402,9 +7522,11 @@
         <v>641</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J104" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K104" s="10" t="s">
         <v>546</v>
       </c>
@@ -7458,7 +7580,7 @@
         <v>9</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="5"/>
@@ -7496,9 +7618,11 @@
         <v>668</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J106" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K106" s="10" t="s">
         <v>546</v>
       </c>
@@ -7541,9 +7665,11 @@
         <v>669</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J107" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K107" s="10" t="s">
         <v>546</v>
       </c>
@@ -7586,9 +7712,11 @@
         <v>670</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J108" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K108" s="10" t="s">
         <v>546</v>
       </c>
@@ -7631,9 +7759,11 @@
         <v>671</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J109" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K109" s="10" t="s">
         <v>546</v>
       </c>
@@ -7685,7 +7815,7 @@
         <v>9</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="5"/>
@@ -7723,9 +7853,11 @@
         <v>673</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J111" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K111" s="10" t="s">
         <v>546</v>
       </c>
@@ -7770,8 +7902,12 @@
       <c r="I112" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
+      <c r="J112" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>540</v>
+      </c>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
       <c r="N112" s="5"/>
@@ -7820,7 +7956,7 @@
         <v>9</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="5"/>
@@ -7869,7 +8005,7 @@
         <v>9</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="5"/>
@@ -7916,7 +8052,7 @@
         <v>9</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="5"/>
@@ -7963,7 +8099,7 @@
         <v>680</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="5"/>
@@ -8012,7 +8148,7 @@
         <v>9</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="5"/>
@@ -8059,7 +8195,7 @@
         <v>9</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="5"/>
@@ -8106,7 +8242,7 @@
         <v>9</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M119" s="10"/>
       <c r="N119" s="5"/>
@@ -8148,8 +8284,12 @@
       <c r="I120" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
+      <c r="J120" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>540</v>
+      </c>
       <c r="L120" s="10"/>
       <c r="M120" s="10"/>
       <c r="N120" s="5"/>
@@ -8198,7 +8338,7 @@
         <v>9</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M121" s="10"/>
       <c r="N121" s="5"/>
@@ -8236,9 +8376,11 @@
         <v>687</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J122" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K122" s="10" t="s">
         <v>546</v>
       </c>
@@ -8290,7 +8432,7 @@
         <v>9</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M123" s="10"/>
       <c r="N123" s="5"/>
@@ -8330,8 +8472,12 @@
       <c r="I124" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
+      <c r="J124" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>540</v>
+      </c>
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
       <c r="N124" s="5"/>
@@ -8371,9 +8517,11 @@
         <v>690</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J125" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K125" s="10" t="s">
         <v>546</v>
       </c>
@@ -8425,7 +8573,7 @@
         <v>9</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="5"/>
@@ -8463,9 +8611,11 @@
         <v>692</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="J127" s="10"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="K127" s="10" t="s">
         <v>546</v>
       </c>
@@ -8517,7 +8667,7 @@
         <v>9</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M128" s="10"/>
       <c r="N128" s="5"/>
@@ -8564,7 +8714,7 @@
         <v>9</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M129" s="10"/>
       <c r="N129" s="5"/>
@@ -8611,7 +8761,7 @@
         <v>9</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="5"/>
@@ -8658,7 +8808,7 @@
         <v>9</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="M131" s="10"/>
       <c r="N131" s="5"/>
